--- a/ProyectoII/bmps/TablaObjetos.xlsx
+++ b/ProyectoII/bmps/TablaObjetos.xlsx
@@ -803,7 +803,7 @@
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/ProyectoII/bmps/TablaObjetos.xlsx
+++ b/ProyectoII/bmps/TablaObjetos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="154">
   <si>
     <t>Arbol1</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Arbol3Enred</t>
   </si>
   <si>
-    <t>Arbol4SinEnr</t>
-  </si>
-  <si>
     <t>BabaYagaBroom</t>
   </si>
   <si>
@@ -165,13 +162,337 @@
   </si>
   <si>
     <t>Obstaculo</t>
+  </si>
+  <si>
+    <t>Clase 2</t>
+  </si>
+  <si>
+    <t>Cod Editor</t>
+  </si>
+  <si>
+    <t>Arbol1 Movible</t>
+  </si>
+  <si>
+    <t>TArbol</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Escondite</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Hueso</t>
+  </si>
+  <si>
+    <t>Enredadera</t>
+  </si>
+  <si>
+    <t>Cebo</t>
+  </si>
+  <si>
+    <t>Yesca</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Trampa Cerrada</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Huella H Arrib</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>huella H Abajo</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>Huella L Arrib</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Huella L Abaj</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Valla 1</t>
+  </si>
+  <si>
+    <t>Valla  2</t>
+  </si>
+  <si>
+    <t>Reservados</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Arbol3SinEnr</t>
+  </si>
+  <si>
+    <t>CODIFTXT</t>
+  </si>
+  <si>
+    <t>ArbolF</t>
+  </si>
+  <si>
+    <t>PiedraGrande</t>
+  </si>
+  <si>
+    <t>Arbol3A</t>
+  </si>
+  <si>
+    <t>Arbol3B</t>
+  </si>
+  <si>
+    <t>CasetaBotaDomo</t>
+  </si>
+  <si>
+    <t>CasetaDomovoi</t>
+  </si>
+  <si>
+    <t>PozoA</t>
+  </si>
+  <si>
+    <t>PozoB</t>
+  </si>
+  <si>
+    <t>TrampaCerrada</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Valla</t>
+  </si>
+  <si>
+    <t>Valla2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbol </t>
+  </si>
+  <si>
+    <t>s, t, d, i, a, b</t>
+  </si>
+  <si>
+    <t>INTRO?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>ñ</t>
+  </si>
+  <si>
+    <t>Mecanica Juego</t>
+  </si>
+  <si>
+    <t>Inserta Objeto</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t>e, f, m, t</t>
+  </si>
+  <si>
+    <t>No Funciona</t>
+  </si>
+  <si>
+    <t>Reservado Codigo</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>·</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>No reconoido por SDLK con 1 pulsacion</t>
+  </si>
+  <si>
+    <t>(espacio)</t>
+  </si>
+  <si>
+    <t>Espacio</t>
+  </si>
+  <si>
+    <t>SDLK_</t>
+  </si>
+  <si>
+    <t>COMMA</t>
+  </si>
+  <si>
+    <t>PLUS</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>LESS</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>DOLLAR</t>
+  </si>
+  <si>
+    <t>AMPERSAND</t>
+  </si>
+  <si>
+    <t>UNDERSCORE</t>
+  </si>
+  <si>
+    <t>EXCLAMAIN</t>
+  </si>
+  <si>
+    <t>QUESTION</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>MINUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +500,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +535,66 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -212,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -225,6 +621,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -541,271 +962,1008 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="14.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="26" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>9</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="19">
+        <v>8</v>
+      </c>
+      <c r="G8" s="19">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="19">
+        <v>9</v>
+      </c>
+      <c r="G11" s="19">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>47</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="M12" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>48</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="N12" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>49</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="O12" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="P12" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>6</v>
+      </c>
+      <c r="R12" s="12">
+        <v>7</v>
+      </c>
+      <c r="S12" s="12">
+        <v>8</v>
+      </c>
+      <c r="T12" s="12">
+        <v>9</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="M13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="N13" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X14" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="U16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3">
-        <v>52</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="F20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="G20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="F21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="F22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="P22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="F23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="F24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2</v>
+      </c>
+      <c r="G32" s="9">
+        <v>2</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="9">
+        <v>3</v>
+      </c>
+      <c r="G33" s="9">
+        <v>3</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
